--- a/MachineBookExtract/newoutput.xlsx
+++ b/MachineBookExtract/newoutput.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,67 +529,77 @@
           <t>PresentPercent</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Heroes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2174</v>
+        <v>5266</v>
       </c>
       <c r="C2" t="n">
-        <v>11329</v>
+        <v>30227</v>
       </c>
       <c r="D2" t="n">
-        <v>26.55294117647059</v>
+        <v>23.28813559322034</v>
       </c>
       <c r="E2" t="n">
-        <v>130.6395348837209</v>
+        <v>126.3206751054852</v>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="G2" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>12.33333333333333</v>
+        <v>68.12903225806451</v>
       </c>
       <c r="I2" t="n">
-        <v>51.35897435897436</v>
+        <v>317.741935483871</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>30.76923076923077</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="M2" t="n">
-        <v>69.23076923076923</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="N2" t="n">
-        <v>118</v>
+        <v>424</v>
       </c>
       <c r="O2" t="n">
-        <v>5.427782888684453</v>
+        <v>8.051652107861754</v>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>447</v>
       </c>
       <c r="Q2" t="n">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="R2" t="n">
-        <v>299</v>
+        <v>748</v>
       </c>
       <c r="S2" t="n">
-        <v>44.14715719063545</v>
+        <v>40.24064171122995</v>
       </c>
       <c r="T2" t="n">
-        <v>55.85284280936455</v>
+        <v>59.75935828877005</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>['Dracula', 'Mina', 'Szekelys', 'Herr']</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -597,61 +607,66 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1926</v>
+        <v>5099</v>
       </c>
       <c r="C3" t="n">
-        <v>10716</v>
+        <v>28143</v>
       </c>
       <c r="D3" t="n">
-        <v>17.45299145299145</v>
+        <v>19.74264705882353</v>
       </c>
       <c r="E3" t="n">
-        <v>90.5982905982906</v>
+        <v>102.4705882352941</v>
       </c>
       <c r="F3" t="n">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>19.42</v>
+        <v>38.90476190476191</v>
       </c>
       <c r="I3" t="n">
-        <v>84.04000000000001</v>
+        <v>172.7857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L3" t="n">
-        <v>32</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>73.80952380952381</v>
       </c>
       <c r="N3" t="n">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="O3" t="n">
-        <v>6.905503634475597</v>
+        <v>7.177878015297117</v>
       </c>
       <c r="P3" t="n">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="Q3" t="n">
-        <v>122</v>
+        <v>362</v>
       </c>
       <c r="R3" t="n">
-        <v>253</v>
+        <v>782</v>
       </c>
       <c r="S3" t="n">
-        <v>48.22134387351779</v>
+        <v>46.29156010230179</v>
       </c>
       <c r="T3" t="n">
-        <v>51.77865612648221</v>
+        <v>53.70843989769821</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>['Harker', 'Mina', 'Hawkins', 'Whitby']</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -659,61 +674,66 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1545</v>
+        <v>5400</v>
       </c>
       <c r="C4" t="n">
-        <v>8981</v>
+        <v>29529</v>
       </c>
       <c r="D4" t="n">
-        <v>14.42608695652174</v>
+        <v>21.52851711026616</v>
       </c>
       <c r="E4" t="n">
-        <v>77.10434782608695</v>
+        <v>111.2813688212928</v>
       </c>
       <c r="F4" t="n">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="G4" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>9.183098591549296</v>
+        <v>45.59090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>39.50704225352113</v>
+        <v>196.8636363636364</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="L4" t="n">
-        <v>25.35211267605634</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="M4" t="n">
-        <v>74.64788732394366</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="N4" t="n">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="O4" t="n">
-        <v>5.760517799352751</v>
+        <v>7.12962962962963</v>
       </c>
       <c r="P4" t="n">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="Q4" t="n">
-        <v>97</v>
+        <v>356</v>
       </c>
       <c r="R4" t="n">
-        <v>233</v>
+        <v>770</v>
       </c>
       <c r="S4" t="n">
-        <v>41.63090128755365</v>
+        <v>46.23376623376623</v>
       </c>
       <c r="T4" t="n">
-        <v>58.36909871244635</v>
+        <v>53.76623376623377</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>['Dracula', 'Szekelys', 'Herr', 'Bistritz', 'Hawkins', 'Wodin', 'Honfoglalas', 'Voivode', 'Woe']</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -721,61 +741,66 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2399</v>
+        <v>5726</v>
       </c>
       <c r="C5" t="n">
-        <v>13614</v>
+        <v>30188</v>
       </c>
       <c r="D5" t="n">
-        <v>16.88079470198675</v>
+        <v>17.78885630498534</v>
       </c>
       <c r="E5" t="n">
-        <v>89.16556291390728</v>
+        <v>87.53079178885631</v>
       </c>
       <c r="F5" t="n">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>13.953125</v>
+        <v>21.625</v>
       </c>
       <c r="I5" t="n">
-        <v>61.5625</v>
+        <v>101.0625</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>32.8125</v>
+        <v>37.5</v>
       </c>
       <c r="M5" t="n">
-        <v>67.1875</v>
+        <v>62.5</v>
       </c>
       <c r="N5" t="n">
-        <v>148</v>
+        <v>356</v>
       </c>
       <c r="O5" t="n">
-        <v>6.169237182159233</v>
+        <v>6.217254628012574</v>
       </c>
       <c r="P5" t="n">
-        <v>198</v>
+        <v>462</v>
       </c>
       <c r="Q5" t="n">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="R5" t="n">
-        <v>361</v>
+        <v>858</v>
       </c>
       <c r="S5" t="n">
-        <v>45.15235457063712</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="T5" t="n">
-        <v>54.84764542936288</v>
+        <v>53.84615384615385</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>['Dracula', 'Mina', 'Bistritz']</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -783,61 +808,66 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2057</v>
+        <v>3261</v>
       </c>
       <c r="C6" t="n">
-        <v>11639</v>
+        <v>17805</v>
       </c>
       <c r="D6" t="n">
-        <v>16.22962962962963</v>
+        <v>14.93162393162393</v>
       </c>
       <c r="E6" t="n">
-        <v>85.22222222222223</v>
+        <v>75.09401709401709</v>
       </c>
       <c r="F6" t="n">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="G6" t="n">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>9.102040816326531</v>
+        <v>121.6470588235294</v>
       </c>
       <c r="I6" t="n">
-        <v>39.81632653061224</v>
+        <v>537.7058823529412</v>
       </c>
       <c r="J6" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>32.6530612244898</v>
+        <v>29.41176470588235</v>
       </c>
       <c r="M6" t="n">
-        <v>67.34693877551021</v>
+        <v>70.58823529411765</v>
       </c>
       <c r="N6" t="n">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="O6" t="n">
-        <v>5.930967428293632</v>
+        <v>7.145047531432076</v>
       </c>
       <c r="P6" t="n">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="Q6" t="n">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="R6" t="n">
-        <v>297</v>
+        <v>438</v>
       </c>
       <c r="S6" t="n">
-        <v>35.35353535353536</v>
+        <v>67.12328767123287</v>
       </c>
       <c r="T6" t="n">
-        <v>64.64646464646465</v>
+        <v>32.87671232876713</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Westenra', 'Mina', 'Jonathan']</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -845,61 +875,66 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2357</v>
+        <v>5548</v>
       </c>
       <c r="C7" t="n">
-        <v>13495</v>
+        <v>29157</v>
       </c>
       <c r="D7" t="n">
-        <v>16.5</v>
+        <v>17.36283185840708</v>
       </c>
       <c r="E7" t="n">
-        <v>87.78947368421052</v>
+        <v>85.0117994100295</v>
       </c>
       <c r="F7" t="n">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="G7" t="n">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>7.75925925925926</v>
+        <v>123.6285714285714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.02777777777778</v>
+        <v>512.5142857142857</v>
       </c>
       <c r="J7" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>36.11111111111111</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="M7" t="n">
-        <v>63.88888888888889</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N7" t="n">
-        <v>146</v>
+        <v>399</v>
       </c>
       <c r="O7" t="n">
-        <v>6.194314806957998</v>
+        <v>7.191780821917808</v>
       </c>
       <c r="P7" t="n">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="Q7" t="n">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="R7" t="n">
-        <v>356</v>
+        <v>672</v>
       </c>
       <c r="S7" t="n">
-        <v>39.32584269662922</v>
+        <v>63.39285714285715</v>
       </c>
       <c r="T7" t="n">
-        <v>60.67415730337078</v>
+        <v>36.60714285714285</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Westenra', 'Jonathan', 'Whitby']</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -907,61 +942,66 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2054</v>
+        <v>5710</v>
       </c>
       <c r="C8" t="n">
-        <v>12332</v>
+        <v>30205</v>
       </c>
       <c r="D8" t="n">
-        <v>12.40555555555556</v>
+        <v>18.67492260061919</v>
       </c>
       <c r="E8" t="n">
-        <v>67.51666666666667</v>
+        <v>92.51702786377709</v>
       </c>
       <c r="F8" t="n">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="G8" t="n">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>6.695945945945946</v>
+        <v>131.1666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>28.81756756756757</v>
+        <v>472.7222222222222</v>
       </c>
       <c r="J8" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>39.86486486486486</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>60.13513513513514</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>111</v>
+        <v>347</v>
       </c>
       <c r="O8" t="n">
-        <v>5.404089581304771</v>
+        <v>6.077057793345009</v>
       </c>
       <c r="P8" t="n">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="Q8" t="n">
-        <v>118</v>
+        <v>343</v>
       </c>
       <c r="R8" t="n">
-        <v>317</v>
+        <v>746</v>
       </c>
       <c r="S8" t="n">
-        <v>37.22397476340694</v>
+        <v>45.97855227882037</v>
       </c>
       <c r="T8" t="n">
-        <v>62.77602523659306</v>
+        <v>54.02144772117963</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Mina', 'Jonathan', 'Whitby']</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -969,61 +1009,66 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2255</v>
+        <v>6050</v>
       </c>
       <c r="C9" t="n">
-        <v>13354</v>
+        <v>32507</v>
       </c>
       <c r="D9" t="n">
-        <v>16.65277777777778</v>
+        <v>16.39185750636132</v>
       </c>
       <c r="E9" t="n">
-        <v>91.74305555555556</v>
+        <v>81.7175572519084</v>
       </c>
       <c r="F9" t="n">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="G9" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>7.089887640449438</v>
+        <v>61.92857142857143</v>
       </c>
       <c r="I9" t="n">
-        <v>30.84269662921348</v>
+        <v>282.8928571428572</v>
       </c>
       <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L9" t="n">
         <v>25</v>
       </c>
-      <c r="K9" t="n">
-        <v>64</v>
-      </c>
-      <c r="L9" t="n">
-        <v>28.08988764044944</v>
-      </c>
       <c r="M9" t="n">
-        <v>71.91011235955057</v>
+        <v>75</v>
       </c>
       <c r="N9" t="n">
-        <v>104</v>
+        <v>437</v>
       </c>
       <c r="O9" t="n">
-        <v>4.611973392461198</v>
+        <v>7.223140495867769</v>
       </c>
       <c r="P9" t="n">
-        <v>228</v>
+        <v>452</v>
       </c>
       <c r="Q9" t="n">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="R9" t="n">
-        <v>336</v>
+        <v>864</v>
       </c>
       <c r="S9" t="n">
-        <v>32.14285714285715</v>
+        <v>47.68518518518518</v>
       </c>
       <c r="T9" t="n">
-        <v>67.85714285714286</v>
+        <v>52.31481481481482</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Westenra', 'Hawkins', 'Jonathan', 'Billington']</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1031,61 +1076,66 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2047</v>
+        <v>5667</v>
       </c>
       <c r="C10" t="n">
-        <v>12303</v>
+        <v>30023</v>
       </c>
       <c r="D10" t="n">
-        <v>13.5521472392638</v>
+        <v>15.49104859335038</v>
       </c>
       <c r="E10" t="n">
-        <v>74.48466257668711</v>
+        <v>75.78772378516624</v>
       </c>
       <c r="F10" t="n">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="G10" t="n">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>7.593984962406015</v>
+        <v>90.75675675675676</v>
       </c>
       <c r="I10" t="n">
-        <v>34.14285714285715</v>
+        <v>382.027027027027</v>
       </c>
       <c r="J10" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L10" t="n">
-        <v>41.35338345864662</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="M10" t="n">
-        <v>58.64661654135338</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="N10" t="n">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="O10" t="n">
-        <v>5.764533463605276</v>
+        <v>6.599611787541909</v>
       </c>
       <c r="P10" t="n">
-        <v>199</v>
+        <v>341</v>
       </c>
       <c r="Q10" t="n">
-        <v>110</v>
+        <v>487</v>
       </c>
       <c r="R10" t="n">
-        <v>309</v>
+        <v>828</v>
       </c>
       <c r="S10" t="n">
-        <v>35.59870550161812</v>
+        <v>58.81642512077295</v>
       </c>
       <c r="T10" t="n">
-        <v>64.40129449838187</v>
+        <v>41.18357487922705</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Westenra', 'Seward', 'Mina', 'Jonathan', 'Whitby']</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1093,61 +1143,66 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1819</v>
+        <v>5505</v>
       </c>
       <c r="C11" t="n">
-        <v>11077</v>
+        <v>30384</v>
       </c>
       <c r="D11" t="n">
-        <v>12.5796178343949</v>
+        <v>14.19904076738609</v>
       </c>
       <c r="E11" t="n">
-        <v>69.56050955414013</v>
+        <v>71.86570743405275</v>
       </c>
       <c r="F11" t="n">
-        <v>157</v>
+        <v>417</v>
       </c>
       <c r="G11" t="n">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H11" t="n">
-        <v>8.336134453781513</v>
+        <v>41.65060240963855</v>
       </c>
       <c r="I11" t="n">
-        <v>38.36974789915966</v>
+        <v>184.5542168674699</v>
       </c>
       <c r="J11" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="L11" t="n">
-        <v>31.9327731092437</v>
+        <v>24.09638554216868</v>
       </c>
       <c r="M11" t="n">
-        <v>68.0672268907563</v>
+        <v>75.90361445783132</v>
       </c>
       <c r="N11" t="n">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="O11" t="n">
-        <v>4.727872457394173</v>
+        <v>6.630336058128973</v>
       </c>
       <c r="P11" t="n">
-        <v>146</v>
+        <v>403</v>
       </c>
       <c r="Q11" t="n">
-        <v>96</v>
+        <v>473</v>
       </c>
       <c r="R11" t="n">
-        <v>242</v>
+        <v>876</v>
       </c>
       <c r="S11" t="n">
-        <v>39.66942148760331</v>
+        <v>53.99543378995434</v>
       </c>
       <c r="T11" t="n">
-        <v>60.33057851239669</v>
+        <v>46.00456621004566</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Westenra', 'Seward']</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1155,61 +1210,66 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1696</v>
+        <v>4703</v>
       </c>
       <c r="C12" t="n">
-        <v>10111</v>
+        <v>26547</v>
       </c>
       <c r="D12" t="n">
-        <v>14.45238095238095</v>
+        <v>15.73981191222571</v>
       </c>
       <c r="E12" t="n">
-        <v>79.25396825396825</v>
+        <v>82.22257053291536</v>
       </c>
       <c r="F12" t="n">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="G12" t="n">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>5.465346534653466</v>
+        <v>44.88095238095238</v>
       </c>
       <c r="I12" t="n">
-        <v>25.67326732673267</v>
+        <v>206.8571428571429</v>
       </c>
       <c r="J12" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>37.62376237623762</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="M12" t="n">
-        <v>62.37623762376238</v>
+        <v>73.80952380952381</v>
       </c>
       <c r="N12" t="n">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="O12" t="n">
-        <v>4.186320754716981</v>
+        <v>6.697852434616203</v>
       </c>
       <c r="P12" t="n">
-        <v>162</v>
+        <v>366</v>
       </c>
       <c r="Q12" t="n">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="R12" t="n">
-        <v>237</v>
+        <v>702</v>
       </c>
       <c r="S12" t="n">
-        <v>31.64556962025317</v>
+        <v>47.86324786324786</v>
       </c>
       <c r="T12" t="n">
-        <v>68.35443037974683</v>
+        <v>52.13675213675214</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Westenra', 'Seward', 'Mina', 'Whitby']</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1217,61 +1277,1071 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1904</v>
+        <v>6720</v>
       </c>
       <c r="C13" t="n">
-        <v>11398</v>
+        <v>37365</v>
       </c>
       <c r="D13" t="n">
-        <v>17.4051724137931</v>
+        <v>16.20135746606335</v>
       </c>
       <c r="E13" t="n">
-        <v>97.26724137931035</v>
+        <v>83.53846153846153</v>
       </c>
       <c r="F13" t="n">
-        <v>116</v>
+        <v>442</v>
       </c>
       <c r="G13" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H13" t="n">
-        <v>8.011627906976743</v>
+        <v>43.22388059701493</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>190.8955223880597</v>
       </c>
       <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.8955223880597</v>
+      </c>
+      <c r="M13" t="n">
+        <v>79.1044776119403</v>
+      </c>
+      <c r="N13" t="n">
+        <v>421</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.264880952380953</v>
+      </c>
+      <c r="P13" t="n">
+        <v>619</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>436</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1055</v>
+      </c>
+      <c r="S13" t="n">
+        <v>41.32701421800948</v>
+      </c>
+      <c r="T13" t="n">
+        <v>58.67298578199052</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Westenra', 'Seward', 'Mina', 'Hawkins', 'Hitherto', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6087</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33732</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.89033942558747</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.0757180156658</v>
+      </c>
+      <c r="F14" t="n">
+        <v>383</v>
+      </c>
+      <c r="G14" t="n">
+        <v>65</v>
+      </c>
+      <c r="H14" t="n">
+        <v>48.07692307692308</v>
+      </c>
+      <c r="I14" t="n">
+        <v>219.3230769230769</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>48</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26.15384615384615</v>
+      </c>
+      <c r="M14" t="n">
+        <v>73.84615384615384</v>
+      </c>
+      <c r="N14" t="n">
+        <v>441</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.244948250369641</v>
+      </c>
+      <c r="P14" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>456</v>
+      </c>
+      <c r="R14" t="n">
+        <v>879</v>
+      </c>
+      <c r="S14" t="n">
+        <v>51.87713310580205</v>
+      </c>
+      <c r="T14" t="n">
+        <v>48.12286689419795</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Westenra', 'Hawkins', 'Jonathan', 'Whitby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5951</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32198</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.74133949191686</v>
+      </c>
+      <c r="E15" t="n">
+        <v>73.36258660508084</v>
+      </c>
+      <c r="F15" t="n">
+        <v>433</v>
+      </c>
+      <c r="G15" t="n">
+        <v>84</v>
+      </c>
+      <c r="H15" t="n">
+        <v>32.71428571428572</v>
+      </c>
+      <c r="I15" t="n">
+        <v>140.3333333333333</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K15" t="n">
+        <v>64</v>
+      </c>
+      <c r="L15" t="n">
+        <v>23.80952380952381</v>
+      </c>
+      <c r="M15" t="n">
+        <v>76.19047619047619</v>
+      </c>
+      <c r="N15" t="n">
+        <v>384</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.452697025709965</v>
+      </c>
+      <c r="P15" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>600</v>
+      </c>
+      <c r="R15" t="n">
+        <v>933</v>
+      </c>
+      <c r="S15" t="n">
+        <v>64.30868167202573</v>
+      </c>
+      <c r="T15" t="n">
+        <v>35.69131832797428</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Seward', 'Mina', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5382</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29349</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15.74246575342466</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79.41095890410959</v>
+      </c>
+      <c r="F16" t="n">
+        <v>365</v>
+      </c>
+      <c r="G16" t="n">
+        <v>84</v>
+      </c>
+      <c r="H16" t="n">
+        <v>32.80952380952381</v>
+      </c>
+      <c r="I16" t="n">
+        <v>141.6547619047619</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>73</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13.09523809523809</v>
+      </c>
+      <c r="M16" t="n">
+        <v>86.9047619047619</v>
+      </c>
+      <c r="N16" t="n">
+        <v>369</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.8561872909699</v>
+      </c>
+      <c r="P16" t="n">
+        <v>395</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>459</v>
+      </c>
+      <c r="R16" t="n">
+        <v>854</v>
+      </c>
+      <c r="S16" t="n">
+        <v>53.74707259953161</v>
+      </c>
+      <c r="T16" t="n">
+        <v>46.25292740046839</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Westenra', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4217</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23581</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19.09442060085837</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100.2103004291845</v>
+      </c>
+      <c r="F17" t="n">
+        <v>233</v>
+      </c>
+      <c r="G17" t="n">
+        <v>27</v>
+      </c>
+      <c r="H17" t="n">
+        <v>63.81481481481482</v>
+      </c>
+      <c r="I17" t="n">
+        <v>293.9259259259259</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25.92592592592593</v>
+      </c>
+      <c r="M17" t="n">
+        <v>74.07407407407408</v>
+      </c>
+      <c r="N17" t="n">
+        <v>300</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.114062129475931</v>
+      </c>
+      <c r="P17" t="n">
+        <v>362</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>265</v>
+      </c>
+      <c r="R17" t="n">
+        <v>627</v>
+      </c>
+      <c r="S17" t="n">
+        <v>42.26475279106858</v>
+      </c>
+      <c r="T17" t="n">
+        <v>57.73524720893142</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Seward']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5216</v>
+      </c>
+      <c r="C18" t="n">
+        <v>28781</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15.44598337950139</v>
+      </c>
+      <c r="E18" t="n">
+        <v>78.72853185595568</v>
+      </c>
+      <c r="F18" t="n">
+        <v>361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>64</v>
+      </c>
+      <c r="H18" t="n">
+        <v>58.671875</v>
+      </c>
+      <c r="I18" t="n">
+        <v>261.875</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" t="n">
+        <v>51</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20.3125</v>
+      </c>
+      <c r="M18" t="n">
+        <v>79.6875</v>
+      </c>
+      <c r="N18" t="n">
+        <v>307</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.885736196319018</v>
+      </c>
+      <c r="P18" t="n">
+        <v>399</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>414</v>
+      </c>
+      <c r="R18" t="n">
+        <v>813</v>
+      </c>
+      <c r="S18" t="n">
+        <v>50.92250922509225</v>
+      </c>
+      <c r="T18" t="n">
+        <v>49.07749077490775</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>['Dracula', 'Harker', 'Lucy', 'Seward', 'Jonathan', 'Whitby', 'Billington']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6361</v>
+      </c>
+      <c r="C19" t="n">
+        <v>35422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.18320610687023</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89.13486005089058</v>
+      </c>
+      <c r="F19" t="n">
+        <v>393</v>
+      </c>
+      <c r="G19" t="n">
+        <v>64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>56.140625</v>
+      </c>
+      <c r="I19" t="n">
+        <v>254.171875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>49</v>
+      </c>
+      <c r="L19" t="n">
+        <v>23.4375</v>
+      </c>
+      <c r="M19" t="n">
+        <v>76.5625</v>
+      </c>
+      <c r="N19" t="n">
+        <v>379</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.958182675679924</v>
+      </c>
+      <c r="P19" t="n">
+        <v>395</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>540</v>
+      </c>
+      <c r="R19" t="n">
+        <v>935</v>
+      </c>
+      <c r="S19" t="n">
+        <v>57.75401069518717</v>
+      </c>
+      <c r="T19" t="n">
+        <v>42.24598930481283</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>['Dracula', 'Harker', 'Lucy', 'Seward', 'Mina', 'Jonathan', 'Whitby', 'Voivode', 'Woe']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5289</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18.50993377483444</v>
+      </c>
+      <c r="E20" t="n">
+        <v>95.3476821192053</v>
+      </c>
+      <c r="F20" t="n">
+        <v>302</v>
+      </c>
+      <c r="G20" t="n">
+        <v>33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>33.24242424242424</v>
+      </c>
+      <c r="I20" t="n">
+        <v>144.8787878787879</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21</v>
+      </c>
+      <c r="L20" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="M20" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="N20" t="n">
+        <v>417</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7.884288145207034</v>
+      </c>
+      <c r="P20" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>373</v>
+      </c>
+      <c r="R20" t="n">
+        <v>813</v>
+      </c>
+      <c r="S20" t="n">
+        <v>45.87945879458795</v>
+      </c>
+      <c r="T20" t="n">
+        <v>54.12054120541205</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Seward', 'Mina', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="K13" t="n">
-        <v>67</v>
-      </c>
-      <c r="L13" t="n">
-        <v>22.09302325581395</v>
-      </c>
-      <c r="M13" t="n">
-        <v>77.90697674418605</v>
-      </c>
-      <c r="N13" t="n">
-        <v>111</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5.829831932773109</v>
-      </c>
-      <c r="P13" t="n">
-        <v>171</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>85</v>
-      </c>
-      <c r="R13" t="n">
-        <v>256</v>
-      </c>
-      <c r="S13" t="n">
-        <v>33.203125</v>
-      </c>
-      <c r="T13" t="n">
-        <v>66.796875</v>
+      <c r="B21" t="n">
+        <v>5505</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30854</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.99727520435967</v>
+      </c>
+      <c r="E21" t="n">
+        <v>83.07356948228883</v>
+      </c>
+      <c r="F21" t="n">
+        <v>367</v>
+      </c>
+      <c r="G21" t="n">
+        <v>82</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25.13414634146341</v>
+      </c>
+      <c r="I21" t="n">
+        <v>113.4024390243902</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>60</v>
+      </c>
+      <c r="L21" t="n">
+        <v>26.82926829268293</v>
+      </c>
+      <c r="M21" t="n">
+        <v>73.17073170731707</v>
+      </c>
+      <c r="N21" t="n">
+        <v>364</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.612170753860127</v>
+      </c>
+      <c r="P21" t="n">
+        <v>415</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>398</v>
+      </c>
+      <c r="R21" t="n">
+        <v>813</v>
+      </c>
+      <c r="S21" t="n">
+        <v>48.95448954489545</v>
+      </c>
+      <c r="T21" t="n">
+        <v>51.04551045510455</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>['Harker', 'Seward', 'Mina']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5687</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31746</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16.62087912087912</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.21703296703296</v>
+      </c>
+      <c r="F22" t="n">
+        <v>364</v>
+      </c>
+      <c r="G22" t="n">
+        <v>64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>41.8125</v>
+      </c>
+      <c r="I22" t="n">
+        <v>182.1875</v>
+      </c>
+      <c r="J22" t="n">
+        <v>17</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26.5625</v>
+      </c>
+      <c r="M22" t="n">
+        <v>73.4375</v>
+      </c>
+      <c r="N22" t="n">
+        <v>370</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.506066467381748</v>
+      </c>
+      <c r="P22" t="n">
+        <v>541</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>402</v>
+      </c>
+      <c r="R22" t="n">
+        <v>943</v>
+      </c>
+      <c r="S22" t="n">
+        <v>42.62990455991516</v>
+      </c>
+      <c r="T22" t="n">
+        <v>57.37009544008484</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Mina', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5053</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27733</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.72631578947368</v>
+      </c>
+      <c r="E23" t="n">
+        <v>96.31228070175439</v>
+      </c>
+      <c r="F23" t="n">
+        <v>285</v>
+      </c>
+      <c r="G23" t="n">
+        <v>53</v>
+      </c>
+      <c r="H23" t="n">
+        <v>47.26415094339622</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.9622641509434</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13</v>
+      </c>
+      <c r="K23" t="n">
+        <v>40</v>
+      </c>
+      <c r="L23" t="n">
+        <v>24.52830188679245</v>
+      </c>
+      <c r="M23" t="n">
+        <v>75.47169811320755</v>
+      </c>
+      <c r="N23" t="n">
+        <v>295</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.838115970710469</v>
+      </c>
+      <c r="P23" t="n">
+        <v>376</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>408</v>
+      </c>
+      <c r="R23" t="n">
+        <v>784</v>
+      </c>
+      <c r="S23" t="n">
+        <v>52.04081632653061</v>
+      </c>
+      <c r="T23" t="n">
+        <v>47.95918367346939</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>['Lucy', 'Seward', 'Mina']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5258</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29152</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15.16981132075472</v>
+      </c>
+      <c r="E24" t="n">
+        <v>77.57951482479784</v>
+      </c>
+      <c r="F24" t="n">
+        <v>371</v>
+      </c>
+      <c r="G24" t="n">
+        <v>53</v>
+      </c>
+      <c r="H24" t="n">
+        <v>66.69811320754717</v>
+      </c>
+      <c r="I24" t="n">
+        <v>298.4528301886792</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11</v>
+      </c>
+      <c r="K24" t="n">
+        <v>42</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20.75471698113208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>79.24528301886792</v>
+      </c>
+      <c r="N24" t="n">
+        <v>319</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.066945606694561</v>
+      </c>
+      <c r="P24" t="n">
+        <v>349</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>449</v>
+      </c>
+      <c r="R24" t="n">
+        <v>798</v>
+      </c>
+      <c r="S24" t="n">
+        <v>56.265664160401</v>
+      </c>
+      <c r="T24" t="n">
+        <v>43.734335839599</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Seward', 'Mina', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5978</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31819</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.64659685863874</v>
+      </c>
+      <c r="E25" t="n">
+        <v>82.29842931937172</v>
+      </c>
+      <c r="F25" t="n">
+        <v>382</v>
+      </c>
+      <c r="G25" t="n">
+        <v>36</v>
+      </c>
+      <c r="H25" t="n">
+        <v>58.22222222222222</v>
+      </c>
+      <c r="I25" t="n">
+        <v>256.0555555555555</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>28</v>
+      </c>
+      <c r="L25" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>77.77777777777777</v>
+      </c>
+      <c r="N25" t="n">
+        <v>373</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.2395449983272</v>
+      </c>
+      <c r="P25" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>601</v>
+      </c>
+      <c r="R25" t="n">
+        <v>864</v>
+      </c>
+      <c r="S25" t="n">
+        <v>69.56018518518519</v>
+      </c>
+      <c r="T25" t="n">
+        <v>30.43981481481481</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>['Dracula', 'Harker', 'Mina', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5969</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32381</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.38144329896907</v>
+      </c>
+      <c r="E26" t="n">
+        <v>82.45876288659794</v>
+      </c>
+      <c r="F26" t="n">
+        <v>388</v>
+      </c>
+      <c r="G26" t="n">
+        <v>61</v>
+      </c>
+      <c r="H26" t="n">
+        <v>58.50819672131148</v>
+      </c>
+      <c r="I26" t="n">
+        <v>259.7049180327869</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>47</v>
+      </c>
+      <c r="L26" t="n">
+        <v>22.95081967213115</v>
+      </c>
+      <c r="M26" t="n">
+        <v>77.04918032786885</v>
+      </c>
+      <c r="N26" t="n">
+        <v>350</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.863628748534093</v>
+      </c>
+      <c r="P26" t="n">
+        <v>301</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>526</v>
+      </c>
+      <c r="R26" t="n">
+        <v>827</v>
+      </c>
+      <c r="S26" t="n">
+        <v>63.60338573155985</v>
+      </c>
+      <c r="T26" t="n">
+        <v>36.39661426844015</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>['Harker', 'Lucy', 'Seward', 'Mina', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6908</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36947</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15.54105263157895</v>
+      </c>
+      <c r="E27" t="n">
+        <v>76.78526315789473</v>
+      </c>
+      <c r="F27" t="n">
+        <v>475</v>
+      </c>
+      <c r="G27" t="n">
+        <v>32</v>
+      </c>
+      <c r="H27" t="n">
+        <v>135.9375</v>
+      </c>
+      <c r="I27" t="n">
+        <v>582.0625</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>24</v>
+      </c>
+      <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>378</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.471916618413434</v>
+      </c>
+      <c r="P27" t="n">
+        <v>384</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>587</v>
+      </c>
+      <c r="R27" t="n">
+        <v>971</v>
+      </c>
+      <c r="S27" t="n">
+        <v>60.45314109165808</v>
+      </c>
+      <c r="T27" t="n">
+        <v>39.54685890834192</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>['Harker', 'Seward', 'Mina', 'Jonathan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7762</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42126</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.65450643776824</v>
+      </c>
+      <c r="E28" t="n">
+        <v>89.40128755364807</v>
+      </c>
+      <c r="F28" t="n">
+        <v>466</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35</v>
+      </c>
+      <c r="H28" t="n">
+        <v>161.6285714285714</v>
+      </c>
+      <c r="I28" t="n">
+        <v>717.1142857142858</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>28</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" t="n">
+        <v>80</v>
+      </c>
+      <c r="N28" t="n">
+        <v>509</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6.557588250450915</v>
+      </c>
+      <c r="P28" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>569</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1111</v>
+      </c>
+      <c r="S28" t="n">
+        <v>51.21512151215121</v>
+      </c>
+      <c r="T28" t="n">
+        <v>48.78487848784879</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>['Dracula', 'Seward', 'Mina', 'Jonathan']</t>
+        </is>
       </c>
     </row>
   </sheetData>
